--- a/xlsx/经济学人_intext.xlsx
+++ b/xlsx/经济学人_intext.xlsx
@@ -15,1791 +15,1800 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="598">
   <si>
     <t>经济学人</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%AD%B8%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%AD%B8%E4%BA%BA%E9%9B%86%E5%9C%98</t>
+  </si>
+  <si>
+    <t>经济学人集团</t>
+  </si>
+  <si>
+    <t>政策_政策_维基百科_经济学人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E5%A3%AB%C2%B7%E5%A8%81%E7%88%BE%E9%81%9C_(%E5%95%86%E4%BA%BA)</t>
+  </si>
+  <si>
+    <t>詹姆士·威尔逊 (商人)</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Zanny_Minton_Beddoes</t>
+  </si>
+  <si>
+    <t>en-Zanny Minton Beddoes</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%85%B8%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>古典自由主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>社会自由主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>经济自由主义</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Radical_centrism</t>
+  </si>
+  <si>
+    <t>en-Radical centrism</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>英国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%80%AB%E6%95%A6</t>
+  </si>
+  <si>
+    <t>伦敦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%95%8F%E5%B8%82</t>
+  </si>
+  <si>
+    <t>西敏市</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/St_James%27s_Street</t>
+  </si>
+  <si>
+    <t>en-St James's Street</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E6%9C%9F%E5%88%8A%E8%99%9F</t>
+  </si>
+  <si>
+    <t>国际标准期刊号</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E9%8E%8A</t>
+  </si>
+  <si>
+    <t>英镑</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E5%85%83</t>
+  </si>
+  <si>
+    <t>欧元</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E5%85%83%E5%8C%BA</t>
+  </si>
+  <si>
+    <t>欧元区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%85%83</t>
+  </si>
+  <si>
+    <t>美元</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%85%83</t>
+  </si>
+  <si>
+    <t>加元</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
+  </si>
+  <si>
+    <t>加拿大</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9E%E5%85%83</t>
+  </si>
+  <si>
+    <t>澳大利亚元</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>澳大利亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%85%83</t>
+  </si>
+  <si>
+    <t>新元</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8A%A0%E5%9D%A1</t>
+  </si>
+  <si>
+    <t>新加坡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B8%AF%E5%85%83</t>
+  </si>
+  <si>
+    <t>港元</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF</t>
+  </si>
+  <si>
+    <t>香港</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%87%BA%E5%B9%A3</t>
+  </si>
+  <si>
+    <t>新台币</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3</t>
+  </si>
+  <si>
+    <t>台湾</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%B0%91%E5%B9%A3</t>
+  </si>
+  <si>
+    <t>人民币</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E5%A4%A7%E9%99%86</t>
+  </si>
+  <si>
+    <t>中国大陆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%9C%AC</t>
+  </si>
+  <si>
+    <t>开本</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9B%9C%E8%AA%8C</t>
+  </si>
+  <si>
+    <t>杂志</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E</t>
+  </si>
+  <si>
+    <t>北美</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E6%96%AF%E6%9F%B4%E5%B0%94%E5%BE%B7%E5%AE%B6%E6%97%8F</t>
+  </si>
+  <si>
+    <t>罗斯柴尔德家族</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9</t>
+  </si>
+  <si>
+    <t>意大利</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%B6%85%E5%88%A9%E5%AE%B6%E6%97%8F</t>
+  </si>
+  <si>
+    <t>阿涅利家族</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8E%A7%E8%82%A1%E5%85%AC%E5%8F%B8</t>
+  </si>
+  <si>
+    <t>控股公司</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%91%A3%E4%BA%8B%E6%9C%83</t>
+  </si>
+  <si>
+    <t>董事会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%B9%E7%94%9F%E9%9B%86%E5%9C%98</t>
+  </si>
+  <si>
+    <t>培生集团</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B4%A2%E5%B9%B4</t>
+  </si>
+  <si>
+    <t>财年</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%90%86%E4%BA%8B%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>理事会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>经济学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AD%A6%E6%9C%AF%E6%9C%9F%E5%88%8A</t>
+  </si>
+  <si>
+    <t>学术期刊</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E8%B2%BF%E6%98%93</t>
+  </si>
+  <si>
+    <t>自由贸易</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E5%8C%96</t>
+  </si>
+  <si>
+    <t>全球化</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Free_migration</t>
+  </si>
+  <si>
+    <t>en-Free migration</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E6%80%A7%E5%A9%9A%E5%A7%BB</t>
+  </si>
+  <si>
+    <t>同性婚姻</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%95%B6%C2%B7%E6%96%AF%E5%AF%86</t>
+  </si>
+  <si>
+    <t>亚当·斯密</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%8D%AB%C2%B7%E4%BC%91%E8%B0%9F</t>
+  </si>
+  <si>
+    <t>大卫·休谟</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%98%87%E6%A0%BC%E8%98%AD</t>
+  </si>
+  <si>
+    <t>苏格兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%99%82%E4%BB%A3_(%E9%9B%9C%E8%AA%8C)</t>
+  </si>
+  <si>
+    <t>时代 (杂志)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%B8%83%E6%96%AF</t>
+  </si>
+  <si>
+    <t>福布斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%81%9E%E9%80%B1%E5%88%8A</t>
+  </si>
+  <si>
+    <t>新闻周刊</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%81%9E%E9%9B%9C%E8%AA%8C</t>
+  </si>
+  <si>
+    <t>新闻杂志</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E7%B8%BD%E8%A3%81</t>
+  </si>
+  <si>
+    <t>行政总裁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A9%80%E7%89%A9%E6%B3%95</t>
+  </si>
+  <si>
+    <t>谷物法</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%80%B2%E5%8F%A3</t>
+  </si>
+  <si>
+    <t>进口</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E7%A8%85</t>
+  </si>
+  <si>
+    <t>关税</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%9B%E8%82%A1%E6%9B%B8</t>
+  </si>
+  <si>
+    <t>招股书</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E8%AB%96</t>
+  </si>
+  <si>
+    <t>社论</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>政治经济学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A8%8E%E6%94%B6</t>
+  </si>
+  <si>
+    <t>税收</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E8%AD%B0%E6%9C%83</t>
+  </si>
+  <si>
+    <t>英国议会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E7%8E%8B%E5%AE%A4</t>
+  </si>
+  <si>
+    <t>英国王室</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%A0%BC%E8%98%AD</t>
+  </si>
+  <si>
+    <t>英格兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD</t>
+  </si>
+  <si>
+    <t>爱尔兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B4%A2%E6%94%BF</t>
+  </si>
+  <si>
+    <t>财政</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B2%A8%E5%B9%A3%E5%B8%82%E5%A0%B4</t>
+  </si>
+  <si>
+    <t>货币市场</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E5%B8%82%E5%85%AC%E5%8F%B8</t>
+  </si>
+  <si>
+    <t>上市公司</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>地理学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%96%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>化学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82</t>
+  </si>
+  <si>
+    <t>比利时</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB</t>
+  </si>
+  <si>
+    <t>瑞士</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E6%B5%B7%E5%A4%96%E9%A0%98%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>英国海外领地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D</t>
+  </si>
+  <si>
+    <t>金融</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E9%90%B5%E8%B7%AF%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>英国铁路史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E5%B0%94%E7%89%B9%C2%B7%E7%99%BD%E8%8A%9D%E6%B5%A9</t>
+  </si>
+  <si>
+    <t>沃尔特·白芝浩</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Walter_Layton,_1st_Baron_Layton</t>
+  </si>
+  <si>
+    <t>en-Walter Layton, 1st Baron Layton</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Geoffrey_Crowther,_Baron_Crowther</t>
+  </si>
+  <si>
+    <t>en-Geoffrey Crowther, Baron Crowther</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E6%88%B0</t>
+  </si>
+  <si>
+    <t>二战</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8F%8D%E7%8F%A0%E6%B8%AF%E4%BA%8B%E4%BB%B6</t>
+  </si>
+  <si>
+    <t>珍珠港事件</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Reynolds_Stone</t>
+  </si>
+  <si>
+    <t>en-Reynolds Stone</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B2%97%E7%8D%B7%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>粗犷主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E7%BE%8E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>拉丁美洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>西班牙语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AD%97%E9%AB%94</t>
+  </si>
+  <si>
+    <t>字体</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Exor_(company)</t>
+  </si>
+  <si>
+    <t>en-Exor (company)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E4%BC%AF%E7%89%B9%C2%B7%E6%96%AF%E5%AE%BE%E5%A1%9E</t>
+  </si>
+  <si>
+    <t>赫伯特·斯宾塞</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Richard_Holt_Hutton</t>
+  </si>
+  <si>
+    <t>en-Richard Holt Hutton</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Inglis_Palgrave</t>
+  </si>
+  <si>
+    <t>en-Inglis Palgrave</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Francis_Wrigley_Hirst</t>
+  </si>
+  <si>
+    <t>en-Francis Wrigley Hirst</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Donald_Tyerman</t>
+  </si>
+  <si>
+    <t>en-Donald Tyerman</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%87%8C%E6%96%AF%E6%88%B4%E5%B0%94%C2%B7%E4%BC%AF%E5%A5%88%E7%89%B9</t>
+  </si>
+  <si>
+    <t>阿里斯戴尔·伯奈特</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Andrew_Knight_(journalist)</t>
+  </si>
+  <si>
+    <t>en-Andrew Knight (journalist)</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Rupert_Pennant-Rea</t>
+  </si>
+  <si>
+    <t>en-Rupert Pennant-Rea</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Bill_Emmott</t>
+  </si>
+  <si>
+    <t>en-Bill Emmott</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/John_Micklethwait</t>
+  </si>
+  <si>
+    <t>en-John Micklethwait</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/George_Monbiot</t>
+  </si>
+  <si>
+    <t>en-George Monbiot</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>新自由主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%87%AF%E6%81%A9%E6%96%AF%E4%B8%BB%E4%B9%89%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>凯恩斯主义经济学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A2%B3%E6%8E%92%E6%94%BE%E7%A8%85</t>
+  </si>
+  <si>
+    <t>碳排放税</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E8%AE%8A%E6%9A%96</t>
+  </si>
+  <si>
+    <t>全球变暖</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AF%92%E5%93%81%E7%A6%81%E5%88%B6%E6%94%BF%E7%AD%96</t>
+  </si>
+  <si>
+    <t>毒品禁制政策</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Taxation_in_the_United_States</t>
+  </si>
+  <si>
+    <t>en-Taxation in the United States</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%AB%94%E7%BD%B0</t>
+  </si>
+  <si>
+    <t>体罚</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Guest_worker_program</t>
+  </si>
+  <si>
+    <t>en-Guest worker program</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%B5%A6</t>
+  </si>
+  <si>
+    <t>大赦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A7%8D%E6%9E%9D%E7%AE%A1%E5%88%B6</t>
+  </si>
+  <si>
+    <t>枪枝管制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E9%BB%A8_(%E8%8B%B1%E5%9C%8B)</t>
+  </si>
+  <si>
+    <t>工党 (英国)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%AE%88%E9%BB%A8_(%E8%8B%B1%E5%9C%8B)</t>
+  </si>
+  <si>
+    <t>保守党 (英国)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
+  </si>
+  <si>
+    <t>共和党 (美国)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
+  </si>
+  <si>
+    <t>民主党 (美国)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%87%8C%E6%A0%B9</t>
+  </si>
+  <si>
+    <t>里根</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%92%92%E5%88%87%E5%B0%94</t>
+  </si>
+  <si>
+    <t>撒切尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E6%88%B0</t>
+  </si>
+  <si>
+    <t>越战</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E7%BE%85%E5%BE%B7%C2%B7%E5%A8%81%E7%88%BE%E9%81%9C</t>
+  </si>
+  <si>
+    <t>哈罗德·威尔逊</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%B0%94%C2%B7%E5%85%8B%E6%9E%97%E9%A1%BF</t>
+  </si>
+  <si>
+    <t>比尔·克林顿</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%BB%E5%88%91</t>
+  </si>
+  <si>
+    <t>死刑</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Prison_reform</t>
+  </si>
+  <si>
+    <t>en-Prison reform</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8E%BB%E6%AE%96%E6%B0%91%E5%8C%96</t>
+  </si>
+  <si>
+    <t>去殖民化</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E9%8A%80%E8%A1%8C</t>
+  </si>
+  <si>
+    <t>世界银行</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E5%B0%94%E7%A6%8F%E5%A8%81%E8%8C%A8</t>
+  </si>
+  <si>
+    <t>沃尔福威茨</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E7%9B%A7%E6%96%AF%E7%A7%91%E5%B0%BC</t>
+  </si>
+  <si>
+    <t>贝卢斯科尼</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%89%9B%E6%9E%9C%E6%B0%91%E4%B8%BB%E5%85%B1%E5%92%8C%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>刚果民主共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%91%9F%E5%A4%AB%C2%B7%E5%8D%A1%E6%AF%94%E6%8B%89</t>
+  </si>
+  <si>
+    <t>约瑟夫·卡比拉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B4%A5%E5%B7%B4%E5%B8%83%E9%9F%8B</t>
+  </si>
+  <si>
+    <t>津巴布韦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A9%86%E5%8A%A0%E8%B4%9D</t>
+  </si>
+  <si>
+    <t>穆加贝</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%A0%B9%E5%BB%B7</t>
+  </si>
+  <si>
+    <t>阿根廷</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E6%96%AF%E8%92%82%E5%A8%9C%C2%B7%E8%B4%B9%E5%B0%94%E5%8D%97%E5%BE%B7%E6%96%AF</t>
+  </si>
+  <si>
+    <t>克里斯蒂娜·费尔南德斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E6%9E%97%E9%A1%BF%E5%BC%B9%E5%8A%BE%E6%A1%88</t>
+  </si>
+  <si>
+    <t>克林顿弹劾案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%86%9B%E8%99%90%E5%9B%9A%E4%BA%8B%E4%BB%B6</t>
+  </si>
+  <si>
+    <t>美军虐囚事件</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E9%98%B2%E9%83%A8%E9%95%B7</t>
+  </si>
+  <si>
+    <t>美国国防部长</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E5%A7%86%E6%96%AF%E8%8F%B2%E5%B0%94%E5%BE%B7</t>
+  </si>
+  <si>
+    <t>拉姆斯菲尔德</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%8B%89%E5%85%8B%E6%88%B0%E7%88%AD</t>
+  </si>
+  <si>
+    <t>伊拉克战争</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%8B%89%E5%85%8B</t>
+  </si>
+  <si>
+    <t>伊拉克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E5%B8%83%E4%BB%80</t>
+  </si>
+  <si>
+    <t>小布什</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/1980%E5%B9%B4%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F%E9%80%89%E4%B8%BE</t>
+  </si>
+  <si>
+    <t>1980年美国总统选举</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/2016%E5%B9%B4%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1%E9%81%B8%E8%88%89</t>
+  </si>
+  <si>
+    <t>2016年美国总统选举</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/2004%E5%B9%B4%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1%E9%81%B8%E8%88%89</t>
+  </si>
+  <si>
+    <t>2004年美国总统选举</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/1984%E5%B9%B4%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1%E9%81%B8%E8%88%89</t>
+  </si>
+  <si>
+    <t>1984年美国总统选举</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/1988%E5%B9%B4%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1%E9%81%B8%E8%88%89</t>
+  </si>
+  <si>
+    <t>1988年美国总统选举</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/1996%E5%B9%B4%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1%E9%81%B8%E8%88%89</t>
+  </si>
+  <si>
+    <t>1996年美国总统选举</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%B2%8D%E5%8B%83%C2%B7%E5%A4%9A%E5%B0%94</t>
+  </si>
+  <si>
+    <t>鲍勃·多尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E5%85%8B%E9%87%8C</t>
+  </si>
+  <si>
+    <t>约翰·克里</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/United_Kingdom_general_election,_1955</t>
+  </si>
+  <si>
+    <t>en-United Kingdom general election, 1955</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/2015%E5%B9%B4%E8%8B%B1%E5%9C%8B%E5%A4%A7%E9%81%B8</t>
+  </si>
+  <si>
+    <t>2015年英国大选</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/United_Kingdom_general_election,_1964</t>
+  </si>
+  <si>
+    <t>en-United Kingdom general election, 1964</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/2001%E5%B9%B4%E8%8B%B1%E5%9C%8B%E5%A4%A7%E9%81%B8</t>
+  </si>
+  <si>
+    <t>2001年英国大选</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/2005%E5%B9%B4%E8%8B%B1%E5%9C%8B%E5%A4%A7%E9%81%B8</t>
+  </si>
+  <si>
+    <t>2005年英国大选</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/2017%E5%B9%B4%E8%8B%B1%E5%9C%8B%E5%A4%A7%E9%81%B8</t>
+  </si>
+  <si>
+    <t>2017年英国大选</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%B0%91%E4%B8%BB%E9%BB%A8_(%E8%8B%B1%E5%9C%8B)</t>
+  </si>
+  <si>
+    <t>自由民主党 (英国)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AD%A4%E7%AB%8B%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>孤立主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A5%BF%E6%B4%8B%E6%9C%88%E5%88%8A</t>
+  </si>
+  <si>
+    <t>大西洋月刊</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/David_G._Bradley</t>
+  </si>
+  <si>
+    <t>en-David G. Bradley</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%85%B8%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>古典经济学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9C%8B%E4%B8%8D%E8%A6%8B%E7%9A%84%E6%89%8B</t>
+  </si>
+  <si>
+    <t>看不见的手</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%8F%E8%A7%80%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>宏观经济学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9C%80%E6%B1%82%E6%9B%B2%E7%B7%9A</t>
+  </si>
+  <si>
+    <t>需求曲线</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E8%BE%83%E4%BC%98%E5%8A%BF</t>
+  </si>
+  <si>
+    <t>比较优势</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E6%96%87</t>
+  </si>
+  <si>
+    <t>法文</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E6%96%87</t>
+  </si>
+  <si>
+    <t>德文</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E7%9B%9B</t>
+  </si>
+  <si>
+    <t>高盛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8A%95%E8%B5%84%E9%93%B6%E8%A1%8C</t>
+  </si>
+  <si>
+    <t>投资银行</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9B%99%E9%97%9C%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>双关语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E8%B4%B8%E7%BB%84%E7%BB%87</t>
+  </si>
+  <si>
+    <t>世贸组织</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9D%8E%E6%98%86</t>
+  </si>
+  <si>
+    <t>坎昆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%B4%B8%E6%98%93%E7%BB%84%E7%BB%87%E7%AC%AC%E4%BA%94%E6%AC%A1%E9%83%A8%E9%95%BF%E7%BA%A7%E4%BC%9A%E8%AE%AE</t>
+  </si>
+  <si>
+    <t>世界贸易组织第五次部长级会议</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B1%8E%E4%B8%AD%E6%8C%87</t>
+  </si>
+  <si>
+    <t>竖中指</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E6%8B%89%E5%85%8B%C2%B7%E5%A5%A7%E5%B7%B4%E9%A6%AC</t>
+  </si>
+  <si>
+    <t>贝拉克·奥巴马</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E7%9B%8A%E8%A1%9D%E7%AA%81</t>
+  </si>
+  <si>
+    <t>利益冲突</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%88%E6%AC%84</t>
+  </si>
+  <si>
+    <t>专栏</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BF%88%E5%85%8B%E5%B0%94%C2%B7%E5%88%98%E6%98%93%E6%96%AF</t>
+  </si>
+  <si>
+    <t>迈克尔·刘易斯</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/John_Ralston_Saul</t>
+  </si>
+  <si>
+    <t>en-John Ralston Saul</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E7%A7%91%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>社会科学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99%E6%94%B9%E9%9D%A9</t>
+  </si>
+  <si>
+    <t>宗教改革</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E4%B8%BB%E6%95%99</t>
+  </si>
+  <si>
+    <t>天主教</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>非洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%A4%AA</t>
+  </si>
+  <si>
+    <t>亚太</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>欧洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E7%9B%9F</t>
+  </si>
+  <si>
+    <t>欧盟</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%9D%B1</t>
+  </si>
+  <si>
+    <t>中东</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/MP3</t>
+  </si>
+  <si>
+    <t>MP3</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Audit_Bureau_of_Circulations_(UK)</t>
+  </si>
+  <si>
+    <t>en-Audit Bureau of Circulations (UK)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E5%A4%A7%E9%99%B8</t>
+  </si>
+  <si>
+    <t>欧洲大陆</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/CFO_(magazine)</t>
+  </si>
+  <si>
+    <t>en-CFO (magazine)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/1843_(%E9%9B%9C%E8%AA%8C)</t>
+  </si>
+  <si>
+    <t>1843 (杂志)</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Roll_Call</t>
+  </si>
+  <si>
+    <t>en-Roll Call</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%A8%E7%84%A1%E9%9C%B8%E6%8C%87%E6%95%B8</t>
+  </si>
+  <si>
+    <t>巨无霸指数</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%A8%E7%84%A1%E9%9C%B8</t>
+  </si>
+  <si>
+    <t>巨无霸</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/App</t>
+  </si>
+  <si>
+    <t>App</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Adrian_Wooldridge</t>
+  </si>
+  <si>
+    <t>en-Adrian Wooldridge</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A6%95%E6%A8%B9</t>
+  </si>
+  <si>
+    <t>榕树</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%90%89%E6%8B%89%E7%89%B9%E9%82%A6</t>
+  </si>
+  <si>
+    <t>古吉拉特邦</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Dominic_Ziegler</t>
+  </si>
+  <si>
+    <t>en-Dominic Ziegler</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%85%A7%E7%91%9E%E6%8B%89</t>
+  </si>
+  <si>
+    <t>委内瑞拉</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Andr%C3%A9s_Bello</t>
+  </si>
+  <si>
+    <t>en-Andrés Bello</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Michael_Reid_(journalist)</t>
+  </si>
+  <si>
+    <t>en-Michael Reid (journalist)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%A2%A7%E6%A1%90</t>
+  </si>
+  <si>
+    <t>美国梧桐</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E8%AD%89%E4%BA%A4%E6%89%80</t>
+  </si>
+  <si>
+    <t>纽约证交所</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%88%BE%E8%A1%97</t>
+  </si>
+  <si>
+    <t>华尔街</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Philip_Coggan</t>
+  </si>
+  <si>
+    <t>en-Philip Coggan</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%85%B0%E5%85%8B%E7%8E%8B%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>法兰克王国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E7%90%86%E5%A4%A7%E5%B8%9D</t>
+  </si>
+  <si>
+    <t>查理大帝</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>英语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BE%AD%E6%9B%B8%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>辞书学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%BC%AA%E5%B0%94%C2%B7%E7%BA%A6%E7%BF%B0%E9%80%8A</t>
+  </si>
+  <si>
+    <t>塞缪尔·约翰逊</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Lane_Greene</t>
+  </si>
+  <si>
+    <t>en-Lane Greene</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E8%90%A8%E8%AF%B8%E5%A1%9E%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>马萨诸塞州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%97%E5%85%8B%E6%98%9F%E6%95%A6_(%E9%A9%AC%E8%90%A8%E8%AF%B8%E5%A1%9E%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>列克星敦 (马萨诸塞州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%8D%A8%E7%AB%8B%E6%88%B0%E7%88%AD</t>
+  </si>
+  <si>
+    <t>美国独立战争</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%91%9F%E5%A4%AB%C2%B7%E7%86%8A%E5%BD%BC%E7%89%B9</t>
+  </si>
+  <si>
+    <t>约瑟夫·熊彼特</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A8%83%E5%91%8A</t>
+  </si>
+  <si>
+    <t>讣告</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%B1%E4%B8%9A%E7%8E%87</t>
+  </si>
+  <si>
+    <t>就业率</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E7%95%B6%E5%8B%9E</t>
+  </si>
+  <si>
+    <t>麦当劳</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B2%A8%E5%B9%A3</t>
+  </si>
+  <si>
+    <t>货币</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B3%BC%E8%B2%B7%E5%8A%9B%E5%B9%B3%E5%83%B9</t>
+  </si>
+  <si>
+    <t>购买力平价</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%94%BF%E5%BA%9C%E7%B5%84%E7%B9%94</t>
+  </si>
+  <si>
+    <t>非政府组织</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B8%B8%E8%AF%B4%E9%9B%86%E5%9B%A2</t>
+  </si>
+  <si>
+    <t>游说集团</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%81%E6%A5%AD%E7%A4%BE%E6%9C%83%E8%B2%AC%E4%BB%BB</t>
+  </si>
+  <si>
+    <t>企业社会责任</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E9%9B%BB%E4%BF%A1</t>
+  </si>
+  <si>
+    <t>英国电信</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A8%82%E6%96%BD%E6%9C%83</t>
+  </si>
+  <si>
+    <t>乐施会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E4%B8%96%E7%95%8C%E7%B2%AE%E9%A3%9F%E8%AE%A1%E5%88%92%E7%BD%B2</t>
+  </si>
+  <si>
+    <t>联合国世界粮食计划署</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%85%B0%E7%9A%87%E5%AE%B6%E5%A3%B3%E7%89%8C</t>
+  </si>
+  <si>
+    <t>荷兰皇家壳牌</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/United_Nations_Global_Compact</t>
+  </si>
+  <si>
+    <t>en-United Nations Global Compact</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Institute_of_Directors</t>
+  </si>
+  <si>
+    <t>en-Institute of Directors</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E7%89%B9%E8%B5%A6%E7%B5%84%E7%B9%94</t>
+  </si>
+  <si>
+    <t>国际特赦组织</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%AC%8A</t>
+  </si>
+  <si>
+    <t>人权</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E4%BA%BA%E6%AC%8A%E5%A7%94%E5%93%A1%E6%9C%83</t>
+  </si>
+  <si>
+    <t>联合国人权委员会</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Right_of_reply</t>
+  </si>
+  <si>
+    <t>en-Right of reply</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9C%AA%E4%BE%86%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>未来主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BF%92%E8%BF%91%E5%B9%B3</t>
+  </si>
+  <si>
+    <t>习近平</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%A0%E8%BF%91%E5%B9%B3%E7%9A%84%E4%B8%AA%E4%BA%BA%E5%B4%87%E6%8B%9C</t>
+  </si>
+  <si>
+    <t>习近平的个人崇拜</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%88%E5%88%B6%E6%94%BF%E6%AC%8A</t>
+  </si>
+  <si>
+    <t>专制政权</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B%E6%94%BF%E5%BA%9C</t>
+  </si>
+  <si>
+    <t>中华人民共和国政府</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%B0%91%E8%A1%8C%E5%8B%95%E9%BB%A8</t>
+  </si>
+  <si>
+    <t>人民行动党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AA%B9%E8%AC%97</t>
+  </si>
+  <si>
+    <t>诽谤</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6</t>
+  </si>
+  <si>
+    <t>印度</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E4%BB%80%E7%B1%B3%E7%88%BE</t>
+  </si>
+  <si>
+    <t>克什米尔</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Andrew_Meldrum</t>
+  </si>
+  <si>
+    <t>en-Andrew Meldrum</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BE%9B%E5%B7%B4%E5%A8%81%E9%9D%9E%E6%B4%B2%E6%B0%91%E6%97%8F%E8%81%AF%E7%9B%9F%EF%BC%8D%E6%84%9B%E5%9C%8B%E9%99%A3%E7%B7%9A</t>
+  </si>
+  <si>
+    <t>辛巴威非洲民族联盟－爱国阵线</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%97</t>
+  </si>
+  <si>
+    <t>伊朗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E7%81%A3</t>
+  </si>
+  <si>
+    <t>波斯湾</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E6%B9%BE%E5%90%8D%E7%A7%B0%E4%BA%89%E8%AE%AE</t>
+  </si>
+  <si>
+    <t>波斯湾名称争议</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%98%87%E9%87%8C%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>密苏里州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%89K%E5%85%9A</t>
+  </si>
+  <si>
+    <t>三K党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%85%B1%E7%94%A2%E9%BB%A8%E4%B8%AD%E5%A4%AE%E5%A7%94%E5%93%A1%E6%9C%83%E7%B8%BD%E6%9B%B8%E8%A8%98</t>
+  </si>
+  <si>
+    <t>中国共产党中央委员会总书记</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B%E4%B8%BB%E5%B8%AD</t>
+  </si>
+  <si>
+    <t>中华人民共和国主席</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AF%9B%E6%BE%A4%E6%9D%B1</t>
+  </si>
+  <si>
+    <t>毛泽东</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B%E7%B6%B2%E7%B5%A1%E5%AF%A9%E6%9F%A5</t>
+  </si>
+  <si>
+    <t>中华人民共和国网络审查</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%88%BE%C2%B7%E9%A6%AC%E5%85%8B%E6%80%9D</t>
+  </si>
+  <si>
+    <t>卡尔·马克思</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>社会主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5%E8%AB%96%E5%A3%87%E5%A0%B1</t>
+  </si>
+  <si>
+    <t>芝加哥论坛报</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E5%B0%A4%E7%A0%94%E7%A9%B6%E4%B8%AD%E5%BF%83</t>
+  </si>
+  <si>
+    <t>皮尤研究中心</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%8B%8F%E9%87%8C%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>密苏里大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E5%B8%AD%E8%B2%A1%E5%8B%99%E5%AE%98</t>
+  </si>
+  <si>
+    <t>首席财务官</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%8F%E8%A7%80%E7%B6%93%E6%BF%9F</t>
+  </si>
+  <si>
+    <t>宏观经济</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%B7%A3%E6%94%BF%E6%B2%BB</t>
+  </si>
+  <si>
+    <t>地缘政治</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%88%BE%E8%A1%97%E6%97%A5%E5%A0%B1</t>
+  </si>
+  <si>
+    <t>华尔街日报</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E7%88%BE%C2%B7%E8%93%8B%E8%8C%A8</t>
+  </si>
+  <si>
+    <t>比尔·盖茨</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/James_Fallows</t>
+  </si>
+  <si>
+    <t>en-James Fallows</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E9%83%B5%E5%A0%B1</t>
+  </si>
+  <si>
+    <t>华盛顿邮报</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Andrew_Sullivan</t>
+  </si>
+  <si>
+    <t>en-Andrew Sullivan</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%85%B1%E5%92%8C</t>
+  </si>
+  <si>
+    <t>新共和</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AE%80%E8%80%85%E6%96%87%E6%91%98</t>
+  </si>
+  <si>
+    <t>读者文摘</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%92%E8%81%AF%E7%B6%B2%E6%B3%A1%E6%B2%AB</t>
+  </si>
+  <si>
+    <t>互联网泡沫</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%8B%95%E7%AF%80</t>
+  </si>
+  <si>
+    <t>劳动节</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%81%93%E7%90%BC%E6%96%AF%E6%8C%87%E6%95%B0</t>
+  </si>
+  <si>
+    <t>道琼斯指数</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E6%B4%A5%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>牛津大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E6%B4%A5%E5%A4%A7%E5%AD%A6%E8%8E%AB%E5%BE%B7%E6%9E%97%E5%AD%A6%E9%99%A2</t>
+  </si>
+  <si>
+    <t>牛津大学莫德林学院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A1%9B%E5%A0%B1</t>
+  </si>
+  <si>
+    <t>卫报</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%81%E6%9C%89%E5%8C%96</t>
+  </si>
+  <si>
+    <t>私有化</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Deregulation</t>
+  </si>
+  <si>
+    <t>en-Deregulation</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E5%8C%96</t>
+  </si>
+  <si>
+    <t>自由化</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Jon_Meacham</t>
+  </si>
+  <si>
+    <t>en-Jon Meacham</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E5%8A%A0%E6%8B%89</t>
+  </si>
+  <si>
+    <t>孟加拉</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Mohammed_Nizamul_Huq</t>
+  </si>
+  <si>
+    <t>en-Mohammed Nizamul Huq</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/International_Crimes_Tribunal_(Bangladesh)</t>
+  </si>
+  <si>
+    <t>en-International Crimes Tribunal (Bangladesh)</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Edward_E._Baptist</t>
+  </si>
+  <si>
+    <t>en-Edward E. Baptist</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%B4%E9%9A%B8%E5%88%B6</t>
+  </si>
+  <si>
+    <t>奴隶制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%9C%AC%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>资本主义</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Market_fundamentalism</t>
+  </si>
+  <si>
+    <t>en-Market fundamentalism</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E9%80%8F%E7%A4%BE</t>
+  </si>
+  <si>
+    <t>路透社</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E7%AB%8B%E5%A0%B1</t>
+  </si>
+  <si>
+    <t>独立报</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E5%95%86%E5%AD%A6%E9%99%A2</t>
+  </si>
+  <si>
+    <t>哈佛商学院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E7%9C%81%E7%90%86%E5%B7%A5%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>麻省理工大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E8%8A%AC%E9%A1%BF%E9%82%AE%E6%8A%A5</t>
+  </si>
+  <si>
+    <t>赫芬顿邮报</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Independent_Media_Center</t>
+  </si>
+  <si>
+    <t>en-Independent Media Center</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E5%9B%BD%E5%85%AC%E5%85%B1%E5%B9%BF%E6%92%AD%E7%94%B5%E5%8F%B0</t>
+  </si>
+  <si>
+    <t>全国公共广播电台</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%98%8B%E6%9E%9C%E6%97%A5%E5%A0%B1</t>
+  </si>
+  <si>
+    <t>苹果日报</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E4%B8%8B%E9%9B%9C%E8%AA%8C</t>
+  </si>
+  <si>
+    <t>天下杂志</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2%E6%99%82%E5%A0%B1%E5%9C%A8%E7%B7%9A</t>
+  </si>
+  <si>
+    <t>亚洲时报在线</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E5%9C%8B%E7%95%8C%E8%A8%98%E8%80%85</t>
+  </si>
+  <si>
+    <t>无国界记者</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/The_Irish_Times</t>
+  </si>
+  <si>
+    <t>en-The Irish Times</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E8%B7%AF%E6%92%92%E5%86%B7%E9%82%AE%E6%8A%A5</t>
+  </si>
+  <si>
+    <t>耶路撒冷邮报</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/World_Politics</t>
+  </si>
+  <si>
+    <t>en-World Politics</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
+  </si>
+  <si>
+    <t>权威控制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
+  </si>
+  <si>
+    <t>整合规范文档</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E5%AD%A6%E4%BA%BA</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%AD%B8%E4%BA%BA%E9%9B%86%E5%9C%98</t>
-  </si>
-  <si>
-    <t>經濟學人集團</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_经济学人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E5%A3%AB%C2%B7%E5%A8%81%E7%88%BE%E9%81%9C_(%E5%95%86%E4%BA%BA)</t>
-  </si>
-  <si>
-    <t>詹姆士·威爾遜 (商人)</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Zanny_Minton_Beddoes</t>
-  </si>
-  <si>
-    <t>en-Zanny Minton Beddoes</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%85%B8%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>古典自由主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>社會自由主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>經濟自由主義</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Radical_centrism</t>
-  </si>
-  <si>
-    <t>en-Radical centrism</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>英國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%80%AB%E6%95%A6</t>
-  </si>
-  <si>
-    <t>倫敦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%95%8F%E5%B8%82</t>
-  </si>
-  <si>
-    <t>西敏市</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/St_James%27s_Street</t>
-  </si>
-  <si>
-    <t>en-St James's Street</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E6%9C%9F%E5%88%8A%E8%99%9F</t>
-  </si>
-  <si>
-    <t>國際標準期刊號</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E9%8E%8A</t>
-  </si>
-  <si>
-    <t>英鎊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E5%85%83</t>
-  </si>
-  <si>
-    <t>歐元</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E5%85%83%E5%8C%BA</t>
-  </si>
-  <si>
-    <t>欧元区</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%85%83</t>
-  </si>
-  <si>
-    <t>美元</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>美國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%85%83</t>
-  </si>
-  <si>
-    <t>加元</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
-  </si>
-  <si>
-    <t>加拿大</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9E%E5%85%83</t>
-  </si>
-  <si>
-    <t>澳大利亞元</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>澳大利亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%85%83</t>
-  </si>
-  <si>
-    <t>新元</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8A%A0%E5%9D%A1</t>
-  </si>
-  <si>
-    <t>新加坡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B8%AF%E5%85%83</t>
-  </si>
-  <si>
-    <t>港元</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF</t>
-  </si>
-  <si>
-    <t>香港</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%87%BA%E5%B9%A3</t>
-  </si>
-  <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3</t>
-  </si>
-  <si>
-    <t>臺灣</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%B0%91%E5%B9%A3</t>
-  </si>
-  <si>
-    <t>人民幣</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E5%A4%A7%E9%99%86</t>
-  </si>
-  <si>
-    <t>中国大陆</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%9C%AC</t>
-  </si>
-  <si>
-    <t>開本</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%9C%E8%AA%8C</t>
-  </si>
-  <si>
-    <t>雜誌</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E</t>
-  </si>
-  <si>
-    <t>北美</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E6%96%AF%E6%9F%B4%E5%B0%94%E5%BE%B7%E5%AE%B6%E6%97%8F</t>
-  </si>
-  <si>
-    <t>罗斯柴尔德家族</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9</t>
-  </si>
-  <si>
-    <t>意大利</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%B6%85%E5%88%A9%E5%AE%B6%E6%97%8F</t>
-  </si>
-  <si>
-    <t>阿涅利家族</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8E%A7%E8%82%A1%E5%85%AC%E5%8F%B8</t>
-  </si>
-  <si>
-    <t>控股公司</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%91%A3%E4%BA%8B%E6%9C%83</t>
-  </si>
-  <si>
-    <t>董事會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%B9%E7%94%9F%E9%9B%86%E5%9C%98</t>
-  </si>
-  <si>
-    <t>培生集團</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B4%A2%E5%B9%B4</t>
-  </si>
-  <si>
-    <t>财年</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%90%86%E4%BA%8B%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>理事会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>經濟學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AD%A6%E6%9C%AF%E6%9C%9F%E5%88%8A</t>
-  </si>
-  <si>
-    <t>学术期刊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E8%B2%BF%E6%98%93</t>
-  </si>
-  <si>
-    <t>自由貿易</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E5%8C%96</t>
-  </si>
-  <si>
-    <t>全球化</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Free_migration</t>
-  </si>
-  <si>
-    <t>en-Free migration</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E6%80%A7%E5%A9%9A%E5%A7%BB</t>
-  </si>
-  <si>
-    <t>同性婚姻</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%95%B6%C2%B7%E6%96%AF%E5%AF%86</t>
-  </si>
-  <si>
-    <t>亞當·斯密</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%8D%AB%C2%B7%E4%BC%91%E8%B0%9F</t>
-  </si>
-  <si>
-    <t>大卫·休谟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%98%87%E6%A0%BC%E8%98%AD</t>
-  </si>
-  <si>
-    <t>蘇格蘭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%99%82%E4%BB%A3_(%E9%9B%9C%E8%AA%8C)</t>
-  </si>
-  <si>
-    <t>時代 (雜誌)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%B8%83%E6%96%AF</t>
-  </si>
-  <si>
-    <t>福布斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%81%9E%E9%80%B1%E5%88%8A</t>
-  </si>
-  <si>
-    <t>新聞週刊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%81%9E%E9%9B%9C%E8%AA%8C</t>
-  </si>
-  <si>
-    <t>新聞雜誌</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E7%B8%BD%E8%A3%81</t>
-  </si>
-  <si>
-    <t>行政總裁</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A9%80%E7%89%A9%E6%B3%95</t>
-  </si>
-  <si>
-    <t>穀物法</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%80%B2%E5%8F%A3</t>
-  </si>
-  <si>
-    <t>進口</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E7%A8%85</t>
-  </si>
-  <si>
-    <t>關稅</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%9B%E8%82%A1%E6%9B%B8</t>
-  </si>
-  <si>
-    <t>招股書</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E8%AB%96</t>
-  </si>
-  <si>
-    <t>社論</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>政治经济学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A8%8E%E6%94%B6</t>
-  </si>
-  <si>
-    <t>税收</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E8%AD%B0%E6%9C%83</t>
-  </si>
-  <si>
-    <t>英國議會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E7%8E%8B%E5%AE%A4</t>
-  </si>
-  <si>
-    <t>英國王室</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%A0%BC%E8%98%AD</t>
-  </si>
-  <si>
-    <t>英格蘭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD</t>
-  </si>
-  <si>
-    <t>愛爾蘭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B4%A2%E6%94%BF</t>
-  </si>
-  <si>
-    <t>财政</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B2%A8%E5%B9%A3%E5%B8%82%E5%A0%B4</t>
-  </si>
-  <si>
-    <t>貨幣市場</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E5%B8%82%E5%85%AC%E5%8F%B8</t>
-  </si>
-  <si>
-    <t>上市公司</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>地理學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%96%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>化學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82</t>
-  </si>
-  <si>
-    <t>比利時</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB</t>
-  </si>
-  <si>
-    <t>瑞士</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E6%B5%B7%E5%A4%96%E9%A0%98%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>英國海外領地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D</t>
-  </si>
-  <si>
-    <t>金融</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E9%90%B5%E8%B7%AF%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>英國鐵路史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E5%B0%94%E7%89%B9%C2%B7%E7%99%BD%E8%8A%9D%E6%B5%A9</t>
-  </si>
-  <si>
-    <t>沃尔特·白芝浩</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Walter_Layton,_1st_Baron_Layton</t>
-  </si>
-  <si>
-    <t>en-Walter Layton, 1st Baron Layton</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Geoffrey_Crowther,_Baron_Crowther</t>
-  </si>
-  <si>
-    <t>en-Geoffrey Crowther, Baron Crowther</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E6%88%B0</t>
-  </si>
-  <si>
-    <t>二戰</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8F%8D%E7%8F%A0%E6%B8%AF%E4%BA%8B%E4%BB%B6</t>
-  </si>
-  <si>
-    <t>珍珠港事件</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Reynolds_Stone</t>
-  </si>
-  <si>
-    <t>en-Reynolds Stone</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B2%97%E7%8D%B7%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>粗獷主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E7%BE%8E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>拉丁美洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>西班牙語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AD%97%E9%AB%94</t>
-  </si>
-  <si>
-    <t>字體</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Exor_(company)</t>
-  </si>
-  <si>
-    <t>en-Exor (company)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E4%BC%AF%E7%89%B9%C2%B7%E6%96%AF%E5%AE%BE%E5%A1%9E</t>
-  </si>
-  <si>
-    <t>赫伯特·斯宾塞</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Richard_Holt_Hutton</t>
-  </si>
-  <si>
-    <t>en-Richard Holt Hutton</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Inglis_Palgrave</t>
-  </si>
-  <si>
-    <t>en-Inglis Palgrave</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Francis_Wrigley_Hirst</t>
-  </si>
-  <si>
-    <t>en-Francis Wrigley Hirst</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Donald_Tyerman</t>
-  </si>
-  <si>
-    <t>en-Donald Tyerman</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%87%8C%E6%96%AF%E6%88%B4%E5%B0%94%C2%B7%E4%BC%AF%E5%A5%88%E7%89%B9</t>
-  </si>
-  <si>
-    <t>阿里斯戴尔·伯奈特</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Andrew_Knight_(journalist)</t>
-  </si>
-  <si>
-    <t>en-Andrew Knight (journalist)</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Rupert_Pennant-Rea</t>
-  </si>
-  <si>
-    <t>en-Rupert Pennant-Rea</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Bill_Emmott</t>
-  </si>
-  <si>
-    <t>en-Bill Emmott</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/John_Micklethwait</t>
-  </si>
-  <si>
-    <t>en-John Micklethwait</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/George_Monbiot</t>
-  </si>
-  <si>
-    <t>en-George Monbiot</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>新自由主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%87%AF%E6%81%A9%E6%96%AF%E4%B8%BB%E4%B9%89%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>凯恩斯主义经济学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A2%B3%E6%8E%92%E6%94%BE%E7%A8%85</t>
-  </si>
-  <si>
-    <t>碳排放稅</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E8%AE%8A%E6%9A%96</t>
-  </si>
-  <si>
-    <t>全球變暖</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AF%92%E5%93%81%E7%A6%81%E5%88%B6%E6%94%BF%E7%AD%96</t>
-  </si>
-  <si>
-    <t>毒品禁制政策</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Taxation_in_the_United_States</t>
-  </si>
-  <si>
-    <t>en-Taxation in the United States</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%AB%94%E7%BD%B0</t>
-  </si>
-  <si>
-    <t>體罰</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Guest_worker_program</t>
-  </si>
-  <si>
-    <t>en-Guest worker program</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%B5%A6</t>
-  </si>
-  <si>
-    <t>大赦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A7%8D%E6%9E%9D%E7%AE%A1%E5%88%B6</t>
-  </si>
-  <si>
-    <t>槍枝管制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E9%BB%A8_(%E8%8B%B1%E5%9C%8B)</t>
-  </si>
-  <si>
-    <t>工黨 (英國)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%AE%88%E9%BB%A8_(%E8%8B%B1%E5%9C%8B)</t>
-  </si>
-  <si>
-    <t>保守黨 (英國)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
-  </si>
-  <si>
-    <t>共和黨 (美國)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
-  </si>
-  <si>
-    <t>民主黨 (美國)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%87%8C%E6%A0%B9</t>
-  </si>
-  <si>
-    <t>里根</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%92%92%E5%88%87%E5%B0%94</t>
-  </si>
-  <si>
-    <t>撒切尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E6%88%B0</t>
-  </si>
-  <si>
-    <t>越戰</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E7%BE%85%E5%BE%B7%C2%B7%E5%A8%81%E7%88%BE%E9%81%9C</t>
-  </si>
-  <si>
-    <t>哈羅德·威爾遜</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%B0%94%C2%B7%E5%85%8B%E6%9E%97%E9%A1%BF</t>
-  </si>
-  <si>
-    <t>比尔·克林顿</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%BB%E5%88%91</t>
-  </si>
-  <si>
-    <t>死刑</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Prison_reform</t>
-  </si>
-  <si>
-    <t>en-Prison reform</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8E%BB%E6%AE%96%E6%B0%91%E5%8C%96</t>
-  </si>
-  <si>
-    <t>去殖民化</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E9%8A%80%E8%A1%8C</t>
-  </si>
-  <si>
-    <t>世界銀行</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E5%B0%94%E7%A6%8F%E5%A8%81%E8%8C%A8</t>
-  </si>
-  <si>
-    <t>沃尔福威茨</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E7%9B%A7%E6%96%AF%E7%A7%91%E5%B0%BC</t>
-  </si>
-  <si>
-    <t>貝盧斯科尼</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%89%9B%E6%9E%9C%E6%B0%91%E4%B8%BB%E5%85%B1%E5%92%8C%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>剛果民主共和國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%91%9F%E5%A4%AB%C2%B7%E5%8D%A1%E6%AF%94%E6%8B%89</t>
-  </si>
-  <si>
-    <t>约瑟夫·卡比拉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B4%A5%E5%B7%B4%E5%B8%83%E9%9F%8B</t>
-  </si>
-  <si>
-    <t>津巴布韋</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A9%86%E5%8A%A0%E8%B4%9D</t>
-  </si>
-  <si>
-    <t>穆加贝</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%A0%B9%E5%BB%B7</t>
-  </si>
-  <si>
-    <t>阿根廷</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E6%96%AF%E8%92%82%E5%A8%9C%C2%B7%E8%B4%B9%E5%B0%94%E5%8D%97%E5%BE%B7%E6%96%AF</t>
-  </si>
-  <si>
-    <t>克里斯蒂娜·费尔南德斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E6%9E%97%E9%A1%BF%E5%BC%B9%E5%8A%BE%E6%A1%88</t>
-  </si>
-  <si>
-    <t>克林顿弹劾案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%86%9B%E8%99%90%E5%9B%9A%E4%BA%8B%E4%BB%B6</t>
-  </si>
-  <si>
-    <t>美军虐囚事件</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E9%98%B2%E9%83%A8%E9%95%B7</t>
-  </si>
-  <si>
-    <t>美國國防部長</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E5%A7%86%E6%96%AF%E8%8F%B2%E5%B0%94%E5%BE%B7</t>
-  </si>
-  <si>
-    <t>拉姆斯菲尔德</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%8B%89%E5%85%8B%E6%88%B0%E7%88%AD</t>
-  </si>
-  <si>
-    <t>伊拉克戰爭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%8B%89%E5%85%8B</t>
-  </si>
-  <si>
-    <t>伊拉克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E5%B8%83%E4%BB%80</t>
-  </si>
-  <si>
-    <t>小布什</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/1980%E5%B9%B4%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F%E9%80%89%E4%B8%BE</t>
-  </si>
-  <si>
-    <t>1980年美国总统选举</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/2016%E5%B9%B4%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1%E9%81%B8%E8%88%89</t>
-  </si>
-  <si>
-    <t>2016年美國總統選舉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/2004%E5%B9%B4%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1%E9%81%B8%E8%88%89</t>
-  </si>
-  <si>
-    <t>2004年美國總統選舉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/1984%E5%B9%B4%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1%E9%81%B8%E8%88%89</t>
-  </si>
-  <si>
-    <t>1984年美國總統選舉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/1988%E5%B9%B4%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1%E9%81%B8%E8%88%89</t>
-  </si>
-  <si>
-    <t>1988年美國總統選舉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/1996%E5%B9%B4%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1%E9%81%B8%E8%88%89</t>
-  </si>
-  <si>
-    <t>1996年美國總統選舉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%B2%8D%E5%8B%83%C2%B7%E5%A4%9A%E5%B0%94</t>
-  </si>
-  <si>
-    <t>鲍勃·多尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E5%85%8B%E9%87%8C</t>
-  </si>
-  <si>
-    <t>約翰·克里</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/United_Kingdom_general_election,_1955</t>
-  </si>
-  <si>
-    <t>en-United Kingdom general election, 1955</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/2015%E5%B9%B4%E8%8B%B1%E5%9C%8B%E5%A4%A7%E9%81%B8</t>
-  </si>
-  <si>
-    <t>2015年英國大選</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/United_Kingdom_general_election,_1964</t>
-  </si>
-  <si>
-    <t>en-United Kingdom general election, 1964</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/2001%E5%B9%B4%E8%8B%B1%E5%9C%8B%E5%A4%A7%E9%81%B8</t>
-  </si>
-  <si>
-    <t>2001年英國大選</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/2005%E5%B9%B4%E8%8B%B1%E5%9C%8B%E5%A4%A7%E9%81%B8</t>
-  </si>
-  <si>
-    <t>2005年英國大選</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/2017%E5%B9%B4%E8%8B%B1%E5%9C%8B%E5%A4%A7%E9%81%B8</t>
-  </si>
-  <si>
-    <t>2017年英國大選</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%B0%91%E4%B8%BB%E9%BB%A8_(%E8%8B%B1%E5%9C%8B)</t>
-  </si>
-  <si>
-    <t>自由民主黨 (英國)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AD%A4%E7%AB%8B%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>孤立主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A5%BF%E6%B4%8B%E6%9C%88%E5%88%8A</t>
-  </si>
-  <si>
-    <t>大西洋月刊</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/David_G._Bradley</t>
-  </si>
-  <si>
-    <t>en-David G. Bradley</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%85%B8%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>古典经济学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9C%8B%E4%B8%8D%E8%A6%8B%E7%9A%84%E6%89%8B</t>
-  </si>
-  <si>
-    <t>看不見的手</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%8F%E8%A7%80%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>宏觀經濟學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9C%80%E6%B1%82%E6%9B%B2%E7%B7%9A</t>
-  </si>
-  <si>
-    <t>需求曲線</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E8%BE%83%E4%BC%98%E5%8A%BF</t>
-  </si>
-  <si>
-    <t>比较优势</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E6%96%87</t>
-  </si>
-  <si>
-    <t>法文</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E6%96%87</t>
-  </si>
-  <si>
-    <t>德文</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E7%9B%9B</t>
-  </si>
-  <si>
-    <t>高盛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8A%95%E8%B5%84%E9%93%B6%E8%A1%8C</t>
-  </si>
-  <si>
-    <t>投资银行</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%99%E9%97%9C%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>雙關語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E8%B4%B8%E7%BB%84%E7%BB%87</t>
-  </si>
-  <si>
-    <t>世贸组织</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9D%8E%E6%98%86</t>
-  </si>
-  <si>
-    <t>坎昆</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%B4%B8%E6%98%93%E7%BB%84%E7%BB%87%E7%AC%AC%E4%BA%94%E6%AC%A1%E9%83%A8%E9%95%BF%E7%BA%A7%E4%BC%9A%E8%AE%AE</t>
-  </si>
-  <si>
-    <t>世界贸易组织第五次部长级会议</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B1%8E%E4%B8%AD%E6%8C%87</t>
-  </si>
-  <si>
-    <t>豎中指</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E6%8B%89%E5%85%8B%C2%B7%E5%A5%A7%E5%B7%B4%E9%A6%AC</t>
-  </si>
-  <si>
-    <t>貝拉克·奧巴馬</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E7%9B%8A%E8%A1%9D%E7%AA%81</t>
-  </si>
-  <si>
-    <t>利益衝突</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%88%E6%AC%84</t>
-  </si>
-  <si>
-    <t>專欄</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BF%88%E5%85%8B%E5%B0%94%C2%B7%E5%88%98%E6%98%93%E6%96%AF</t>
-  </si>
-  <si>
-    <t>迈克尔·刘易斯</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/John_Ralston_Saul</t>
-  </si>
-  <si>
-    <t>en-John Ralston Saul</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E7%A7%91%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>社會科學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99%E6%94%B9%E9%9D%A9</t>
-  </si>
-  <si>
-    <t>宗教改革</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E4%B8%BB%E6%95%99</t>
-  </si>
-  <si>
-    <t>天主教</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>非洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%A4%AA</t>
-  </si>
-  <si>
-    <t>亞太</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>歐洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>歐盟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%9D%B1</t>
-  </si>
-  <si>
-    <t>中東</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/MP3</t>
-  </si>
-  <si>
-    <t>MP3</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Audit_Bureau_of_Circulations_(UK)</t>
-  </si>
-  <si>
-    <t>en-Audit Bureau of Circulations (UK)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E5%A4%A7%E9%99%B8</t>
-  </si>
-  <si>
-    <t>歐洲大陸</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/CFO_(magazine)</t>
-  </si>
-  <si>
-    <t>en-CFO (magazine)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/1843_(%E9%9B%9C%E8%AA%8C)</t>
-  </si>
-  <si>
-    <t>1843 (雜誌)</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Roll_Call</t>
-  </si>
-  <si>
-    <t>en-Roll Call</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%A8%E7%84%A1%E9%9C%B8%E6%8C%87%E6%95%B8</t>
-  </si>
-  <si>
-    <t>巨無霸指數</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%A8%E7%84%A1%E9%9C%B8</t>
-  </si>
-  <si>
-    <t>巨無霸</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/App</t>
-  </si>
-  <si>
-    <t>App</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Adrian_Wooldridge</t>
-  </si>
-  <si>
-    <t>en-Adrian Wooldridge</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A6%95%E6%A8%B9</t>
-  </si>
-  <si>
-    <t>榕樹</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%90%89%E6%8B%89%E7%89%B9%E9%82%A6</t>
-  </si>
-  <si>
-    <t>古吉拉特邦</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Dominic_Ziegler</t>
-  </si>
-  <si>
-    <t>en-Dominic Ziegler</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%85%A7%E7%91%9E%E6%8B%89</t>
-  </si>
-  <si>
-    <t>委內瑞拉</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Andr%C3%A9s_Bello</t>
-  </si>
-  <si>
-    <t>en-Andrés Bello</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Michael_Reid_(journalist)</t>
-  </si>
-  <si>
-    <t>en-Michael Reid (journalist)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%A2%A7%E6%A1%90</t>
-  </si>
-  <si>
-    <t>美国梧桐</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E8%AD%89%E4%BA%A4%E6%89%80</t>
-  </si>
-  <si>
-    <t>紐約證交所</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%88%BE%E8%A1%97</t>
-  </si>
-  <si>
-    <t>華爾街</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Philip_Coggan</t>
-  </si>
-  <si>
-    <t>en-Philip Coggan</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%85%B0%E5%85%8B%E7%8E%8B%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>法兰克王国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E7%90%86%E5%A4%A7%E5%B8%9D</t>
-  </si>
-  <si>
-    <t>查理大帝</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>英語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BE%AD%E6%9B%B8%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>辭書學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%BC%AA%E5%B0%94%C2%B7%E7%BA%A6%E7%BF%B0%E9%80%8A</t>
-  </si>
-  <si>
-    <t>塞缪尔·约翰逊</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Lane_Greene</t>
-  </si>
-  <si>
-    <t>en-Lane Greene</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E8%90%A8%E8%AF%B8%E5%A1%9E%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>马萨诸塞州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%97%E5%85%8B%E6%98%9F%E6%95%A6_(%E9%A9%AC%E8%90%A8%E8%AF%B8%E5%A1%9E%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>列克星敦 (马萨诸塞州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%8D%A8%E7%AB%8B%E6%88%B0%E7%88%AD</t>
-  </si>
-  <si>
-    <t>美國獨立戰爭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%91%9F%E5%A4%AB%C2%B7%E7%86%8A%E5%BD%BC%E7%89%B9</t>
-  </si>
-  <si>
-    <t>约瑟夫·熊彼特</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A8%83%E5%91%8A</t>
-  </si>
-  <si>
-    <t>訃告</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%B1%E4%B8%9A%E7%8E%87</t>
-  </si>
-  <si>
-    <t>就业率</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E7%95%B6%E5%8B%9E</t>
-  </si>
-  <si>
-    <t>麥當勞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B2%A8%E5%B9%A3</t>
-  </si>
-  <si>
-    <t>貨幣</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B3%BC%E8%B2%B7%E5%8A%9B%E5%B9%B3%E5%83%B9</t>
-  </si>
-  <si>
-    <t>購買力平價</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%94%BF%E5%BA%9C%E7%B5%84%E7%B9%94</t>
-  </si>
-  <si>
-    <t>非政府組織</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B8%B8%E8%AF%B4%E9%9B%86%E5%9B%A2</t>
-  </si>
-  <si>
-    <t>游说集团</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%81%E6%A5%AD%E7%A4%BE%E6%9C%83%E8%B2%AC%E4%BB%BB</t>
-  </si>
-  <si>
-    <t>企業社會責任</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E9%9B%BB%E4%BF%A1</t>
-  </si>
-  <si>
-    <t>英國電信</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A8%82%E6%96%BD%E6%9C%83</t>
-  </si>
-  <si>
-    <t>樂施會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E4%B8%96%E7%95%8C%E7%B2%AE%E9%A3%9F%E8%AE%A1%E5%88%92%E7%BD%B2</t>
-  </si>
-  <si>
-    <t>联合国世界粮食计划署</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%85%B0%E7%9A%87%E5%AE%B6%E5%A3%B3%E7%89%8C</t>
-  </si>
-  <si>
-    <t>荷兰皇家壳牌</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/United_Nations_Global_Compact</t>
-  </si>
-  <si>
-    <t>en-United Nations Global Compact</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Institute_of_Directors</t>
-  </si>
-  <si>
-    <t>en-Institute of Directors</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E7%89%B9%E8%B5%A6%E7%B5%84%E7%B9%94</t>
-  </si>
-  <si>
-    <t>國際特赦組織</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%AC%8A</t>
-  </si>
-  <si>
-    <t>人權</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E4%BA%BA%E6%AC%8A%E5%A7%94%E5%93%A1%E6%9C%83</t>
-  </si>
-  <si>
-    <t>聯合國人權委員會</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Right_of_reply</t>
-  </si>
-  <si>
-    <t>en-Right of reply</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%AA%E4%BE%86%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>未來主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BF%92%E8%BF%91%E5%B9%B3</t>
-  </si>
-  <si>
-    <t>習近平</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%A0%E8%BF%91%E5%B9%B3%E7%9A%84%E4%B8%AA%E4%BA%BA%E5%B4%87%E6%8B%9C</t>
-  </si>
-  <si>
-    <t>习近平的个人崇拜</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%88%E5%88%B6%E6%94%BF%E6%AC%8A</t>
-  </si>
-  <si>
-    <t>專制政權</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B%E6%94%BF%E5%BA%9C</t>
-  </si>
-  <si>
-    <t>中華人民共和國政府</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%B0%91%E8%A1%8C%E5%8B%95%E9%BB%A8</t>
-  </si>
-  <si>
-    <t>人民行動黨</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AA%B9%E8%AC%97</t>
-  </si>
-  <si>
-    <t>誹謗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6</t>
-  </si>
-  <si>
-    <t>印度</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E4%BB%80%E7%B1%B3%E7%88%BE</t>
-  </si>
-  <si>
-    <t>克什米爾</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Andrew_Meldrum</t>
-  </si>
-  <si>
-    <t>en-Andrew Meldrum</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BE%9B%E5%B7%B4%E5%A8%81%E9%9D%9E%E6%B4%B2%E6%B0%91%E6%97%8F%E8%81%AF%E7%9B%9F%EF%BC%8D%E6%84%9B%E5%9C%8B%E9%99%A3%E7%B7%9A</t>
-  </si>
-  <si>
-    <t>辛巴威非洲民族聯盟－愛國陣線</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%97</t>
-  </si>
-  <si>
-    <t>伊朗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E7%81%A3</t>
-  </si>
-  <si>
-    <t>波斯灣</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E6%B9%BE%E5%90%8D%E7%A7%B0%E4%BA%89%E8%AE%AE</t>
-  </si>
-  <si>
-    <t>波斯湾名称争议</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%98%87%E9%87%8C%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>密蘇里州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%89K%E5%85%9A</t>
-  </si>
-  <si>
-    <t>三K党</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%85%B1%E7%94%A2%E9%BB%A8%E4%B8%AD%E5%A4%AE%E5%A7%94%E5%93%A1%E6%9C%83%E7%B8%BD%E6%9B%B8%E8%A8%98</t>
-  </si>
-  <si>
-    <t>中國共產黨中央委員會總書記</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B%E4%B8%BB%E5%B8%AD</t>
-  </si>
-  <si>
-    <t>中華人民共和國主席</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AF%9B%E6%BE%A4%E6%9D%B1</t>
-  </si>
-  <si>
-    <t>毛澤東</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B%E7%B6%B2%E7%B5%A1%E5%AF%A9%E6%9F%A5</t>
-  </si>
-  <si>
-    <t>中華人民共和國網絡審查</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%88%BE%C2%B7%E9%A6%AC%E5%85%8B%E6%80%9D</t>
-  </si>
-  <si>
-    <t>卡爾·馬克思</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>社會主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5%E8%AB%96%E5%A3%87%E5%A0%B1</t>
-  </si>
-  <si>
-    <t>芝加哥論壇報</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E5%B0%A4%E7%A0%94%E7%A9%B6%E4%B8%AD%E5%BF%83</t>
-  </si>
-  <si>
-    <t>皮尤研究中心</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%8B%8F%E9%87%8C%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>密苏里大学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E5%B8%AD%E8%B2%A1%E5%8B%99%E5%AE%98</t>
-  </si>
-  <si>
-    <t>首席財務官</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%8F%E8%A7%80%E7%B6%93%E6%BF%9F</t>
-  </si>
-  <si>
-    <t>宏觀經濟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%B7%A3%E6%94%BF%E6%B2%BB</t>
-  </si>
-  <si>
-    <t>地緣政治</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%88%BE%E8%A1%97%E6%97%A5%E5%A0%B1</t>
-  </si>
-  <si>
-    <t>華爾街日報</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E7%88%BE%C2%B7%E8%93%8B%E8%8C%A8</t>
-  </si>
-  <si>
-    <t>比爾·蓋茨</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/James_Fallows</t>
-  </si>
-  <si>
-    <t>en-James Fallows</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E9%83%B5%E5%A0%B1</t>
-  </si>
-  <si>
-    <t>華盛頓郵報</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Andrew_Sullivan</t>
-  </si>
-  <si>
-    <t>en-Andrew Sullivan</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%85%B1%E5%92%8C</t>
-  </si>
-  <si>
-    <t>新共和</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AE%80%E8%80%85%E6%96%87%E6%91%98</t>
-  </si>
-  <si>
-    <t>讀者文摘</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%92%E8%81%AF%E7%B6%B2%E6%B3%A1%E6%B2%AB</t>
-  </si>
-  <si>
-    <t>互聯網泡沫</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%8B%95%E7%AF%80</t>
-  </si>
-  <si>
-    <t>勞動節</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%81%93%E7%90%BC%E6%96%AF%E6%8C%87%E6%95%B0</t>
-  </si>
-  <si>
-    <t>道琼斯指数</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E6%B4%A5%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>牛津大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E6%B4%A5%E5%A4%A7%E5%AD%A6%E8%8E%AB%E5%BE%B7%E6%9E%97%E5%AD%A6%E9%99%A2</t>
-  </si>
-  <si>
-    <t>牛津大学莫德林学院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A1%9B%E5%A0%B1</t>
-  </si>
-  <si>
-    <t>衛報</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%81%E6%9C%89%E5%8C%96</t>
-  </si>
-  <si>
-    <t>私有化</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Deregulation</t>
-  </si>
-  <si>
-    <t>en-Deregulation</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E5%8C%96</t>
-  </si>
-  <si>
-    <t>自由化</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Jon_Meacham</t>
-  </si>
-  <si>
-    <t>en-Jon Meacham</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E5%8A%A0%E6%8B%89</t>
-  </si>
-  <si>
-    <t>孟加拉</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Mohammed_Nizamul_Huq</t>
-  </si>
-  <si>
-    <t>en-Mohammed Nizamul Huq</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/International_Crimes_Tribunal_(Bangladesh)</t>
-  </si>
-  <si>
-    <t>en-International Crimes Tribunal (Bangladesh)</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Edward_E._Baptist</t>
-  </si>
-  <si>
-    <t>en-Edward E. Baptist</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%B4%E9%9A%B8%E5%88%B6</t>
-  </si>
-  <si>
-    <t>奴隸制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%9C%AC%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>資本主義</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Market_fundamentalism</t>
-  </si>
-  <si>
-    <t>en-Market fundamentalism</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E9%80%8F%E7%A4%BE</t>
-  </si>
-  <si>
-    <t>路透社</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E7%AB%8B%E5%A0%B1</t>
-  </si>
-  <si>
-    <t>獨立報</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E5%95%86%E5%AD%A6%E9%99%A2</t>
-  </si>
-  <si>
-    <t>哈佛商学院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E7%9C%81%E7%90%86%E5%B7%A5%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>麻省理工大学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E8%8A%AC%E9%A1%BF%E9%82%AE%E6%8A%A5</t>
-  </si>
-  <si>
-    <t>赫芬顿邮报</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Independent_Media_Center</t>
-  </si>
-  <si>
-    <t>en-Independent Media Center</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E5%9B%BD%E5%85%AC%E5%85%B1%E5%B9%BF%E6%92%AD%E7%94%B5%E5%8F%B0</t>
-  </si>
-  <si>
-    <t>全国公共广播电台</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%98%8B%E6%9E%9C%E6%97%A5%E5%A0%B1</t>
-  </si>
-  <si>
-    <t>蘋果日報</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E4%B8%8B%E9%9B%9C%E8%AA%8C</t>
-  </si>
-  <si>
-    <t>天下雜誌</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2%E6%99%82%E5%A0%B1%E5%9C%A8%E7%B7%9A</t>
-  </si>
-  <si>
-    <t>亞洲時報在線</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E5%9C%8B%E7%95%8C%E8%A8%98%E8%80%85</t>
-  </si>
-  <si>
-    <t>無國界記者</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/The_Irish_Times</t>
-  </si>
-  <si>
-    <t>en-The Irish Times</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E8%B7%AF%E6%92%92%E5%86%B7%E9%82%AE%E6%8A%A5</t>
-  </si>
-  <si>
-    <t>耶路撒冷邮报</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/World_Politics</t>
-  </si>
-  <si>
-    <t>en-World Politics</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
-  </si>
-  <si>
-    <t>權威控制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
-  </si>
-  <si>
-    <t>整合规范文档</t>
+    <t>浏览条目正文[c]</t>
+  </si>
+  <si>
+    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -2148,7 +2157,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I299"/>
+  <dimension ref="A1:I301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3362,7 +3371,7 @@
         <v>84</v>
       </c>
       <c r="G42" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H42" t="s">
         <v>4</v>
@@ -10821,6 +10830,64 @@
         <v>4</v>
       </c>
       <c r="I299" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9">
+      <c r="A300" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B300" t="s">
+        <v>0</v>
+      </c>
+      <c r="C300" t="s">
+        <v>1</v>
+      </c>
+      <c r="D300" t="n">
+        <v>299</v>
+      </c>
+      <c r="E300" t="s">
+        <v>595</v>
+      </c>
+      <c r="F300" t="s">
+        <v>596</v>
+      </c>
+      <c r="G300" t="n">
+        <v>4</v>
+      </c>
+      <c r="H300" t="s">
+        <v>4</v>
+      </c>
+      <c r="I300" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9">
+      <c r="A301" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="B301" t="s">
+        <v>0</v>
+      </c>
+      <c r="C301" t="s">
+        <v>1</v>
+      </c>
+      <c r="D301" t="n">
+        <v>300</v>
+      </c>
+      <c r="E301" t="s">
+        <v>595</v>
+      </c>
+      <c r="F301" t="s">
+        <v>597</v>
+      </c>
+      <c r="G301" t="n">
+        <v>1</v>
+      </c>
+      <c r="H301" t="s">
+        <v>4</v>
+      </c>
+      <c r="I301" t="n">
         <v>3</v>
       </c>
     </row>
